--- a/artfynd/A 22181-2023.xlsx
+++ b/artfynd/A 22181-2023.xlsx
@@ -1379,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110311403</v>
+        <v>110310907</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>96268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1391,27 +1391,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>223597</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1420,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>523538.2400258805</v>
+        <v>523556.0103194125</v>
       </c>
       <c r="R8" t="n">
-        <v>6692386.899360129</v>
+        <v>6692397.403020339</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1455,7 +1451,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1465,7 +1461,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1492,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110310743</v>
+        <v>110311403</v>
       </c>
       <c r="B9" t="n">
-        <v>93881</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,25 +1500,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2869</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1533,10 +1529,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>523634.3876397775</v>
+        <v>523538.2400258805</v>
       </c>
       <c r="R9" t="n">
-        <v>6692460.24248525</v>
+        <v>6692386.899360129</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1568,7 +1564,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1578,7 +1574,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1605,10 +1601,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110310907</v>
+        <v>110310743</v>
       </c>
       <c r="B10" t="n">
-        <v>96268</v>
+        <v>93881</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,19 +1617,23 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>223597</v>
+        <v>2869</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>Sphagnum wulfianum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Girg.</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1642,10 +1642,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>523556.0103194125</v>
+        <v>523634.3876397775</v>
       </c>
       <c r="R10" t="n">
-        <v>6692397.403020339</v>
+        <v>6692460.24248525</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 22181-2023.xlsx
+++ b/artfynd/A 22181-2023.xlsx
@@ -1379,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110310907</v>
+        <v>110311403</v>
       </c>
       <c r="B8" t="n">
-        <v>96268</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1391,23 +1391,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>223597</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1416,10 +1420,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>523556.0103194125</v>
+        <v>523538.2400258805</v>
       </c>
       <c r="R8" t="n">
-        <v>6692397.403020339</v>
+        <v>6692386.899360129</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1451,7 +1455,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1461,7 +1465,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1488,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110311403</v>
+        <v>110310907</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>96268</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,27 +1504,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>223597</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>523538.2400258805</v>
+        <v>523556.0103194125</v>
       </c>
       <c r="R9" t="n">
-        <v>6692386.899360129</v>
+        <v>6692397.403020339</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 22181-2023.xlsx
+++ b/artfynd/A 22181-2023.xlsx
@@ -1379,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110311403</v>
+        <v>110310907</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>96268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1391,27 +1391,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>223597</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1420,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>523538.2400258805</v>
+        <v>523556.0103194125</v>
       </c>
       <c r="R8" t="n">
-        <v>6692386.899360129</v>
+        <v>6692397.403020339</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1455,7 +1451,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1465,7 +1461,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1492,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110310907</v>
+        <v>110311403</v>
       </c>
       <c r="B9" t="n">
-        <v>96268</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,23 +1500,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>223597</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>523556.0103194125</v>
+        <v>523538.2400258805</v>
       </c>
       <c r="R9" t="n">
-        <v>6692397.403020339</v>
+        <v>6692386.899360129</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AD9" t="b">
